--- a/기획/테이블/행로/행로 스트링 테이블.xlsx
+++ b/기획/테이블/행로/행로 스트링 테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\기획\테이블\행로\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6359DE-C806-427C-9677-D8B73D97CC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2985733-B871-4E4E-A621-4146FB6F07D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-270" yWindow="135" windowWidth="27405" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>염원의 화</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사금 10 소모. 쿨타임 20초. 대미지 15. 액티브 기술.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>abilityScenarioString</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,6 +84,98 @@
   </si>
   <si>
     <t>설란이 밟았던 무수한 진흙의 기운을 다루는 행로. 끓어오르고, 퇴보하길 반복하였건만 아직도 벌바람 앞에 선 염원은 식지 않았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염구를 발사한다. 착탄 지점을 반경으로 피해를 3회 입힌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사금 10 소모. 쿨타임 20초. 대미지 15. 피해반경 300. 액티브 기술.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사금 20 소모. 쿨타임 15초. 대미지 30. 타겟 지정 거리 800. 적 3명 공격. 액티브 기술.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근방의 적 3명에게 수탄을 발사한다. 수탄은 2초에 걸쳐 유도로 날라간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상시 적용 기술.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">쇠붙이를 탐닉하던 민족이 다루던 유희. 어리석게도 그들은 자신의 애착이 완전하길 바랐다. 그 어리석음으로인해, 설란은 가장 현명한 지식을 손에 넣었다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템을 제작할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충의를 갈구하던 이들이 사용하던 행로. 굴종인가, 아니면 자긍심인가. 알지 못 할 본심들은 늘 설란이란 도회에 녹아 사라졌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자연 스폰된 아이템을 습득시 최소 1배에서 최대 1.3배로 랜덤하게 습득량 증가(개수는 반올림)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇠붙이를 얻으려던 민족이 다루던 행로. 그들은 희열을 느끼지 못하면 관심을 두지 않았다. 그렇기에, 그들은 설란의 민족에 의해 너무나 쉽게 사라졌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사금 15 소모. 쿨타임 7초. 버프 유지시간 2초. 액티브 기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람의 민족이 다루는 의지. 뒤바람은 언제나 두려움의 대상이었다. 정작, 모두가 두려움에 미쳤기에 뒤바람은 반드시 온다는 사실은 안중에도 없었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람의 민족이 다루는 의지. 사람들은 바람에게 의지가 있다고 믿는다. 계시가 아니라면 그들이 사라진 이유는 무엇이란 말인가? 알지도 못하면서, 너무나 쉽게 그리 믿었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초간 플레이어 캐릭터가 정지해 있으면 이동하는 순간 4초간 이동속도가 1.7배로 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 점프의 1.5배만큼 점프한다. 이후 플레이어의 캐릭터가 착지하면 2초간 이동속도가 1.4배로 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>석반을 쌓던 서고지기들의 행로. 생동하는 모든 것에서 배움을 얻고자한 이들이 설란의 서고지기였다. 그 학구열이 쌓아올린 것이 분명 설란이란 도회였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 가까운 기능 NPC의 방향을 표시한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>색부와 같던 서고지기들의 교섭술. 그들은 본디 보잘것 없었다. 그렇기에 누구보다도 기원했고, 치열하게 삶을 투쟁했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상인 NPC에게 아이템 구매 시 랜덤으로 1배에서 최소 0.7배의 가격으로 아이템 구매.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별을 셈하던 무당들이 다루던 행로. 앞길을 비추는 것은 신비에 가까운 힘이다. 이를 알기에 무당들은 설란의 치세 아래 정체성을 유지할 수 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 캐릭터의 공격력이 20 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대지모와 소통하던 무당들의 행로. 아무리 위대하다한들 한낯 인간의 업적이다. 그것을 알기에 무당들은 석반에 매몰되지 않았고, 쇠락할지언정 끊어지진 않았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 캐릭터의 점성이 50 증가한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,16 +503,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="121.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.875" customWidth="1"/>
+    <col min="3" max="3" width="78.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="144" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="88.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -435,10 +523,10 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -449,9 +537,12 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -462,6 +553,15 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -470,6 +570,15 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -478,6 +587,15 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -486,6 +604,15 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -494,6 +621,15 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -502,6 +638,15 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -510,6 +655,15 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -518,6 +672,15 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -525,6 +688,15 @@
       </c>
       <c r="B11" t="s">
         <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/기획/테이블/행로/행로 스트링 테이블.xlsx
+++ b/기획/테이블/행로/행로 스트링 테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\기획\테이블\행로\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2985733-B871-4E4E-A621-4146FB6F07D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB63164-3050-4FD5-B1F4-805E3E99C338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-270" yWindow="135" windowWidth="27405" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="2535" windowWidth="20220" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -167,16 +167,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어 캐릭터의 공격력이 20 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대지모와 소통하던 무당들의 행로. 아무리 위대하다한들 한낯 인간의 업적이다. 그것을 알기에 무당들은 석반에 매몰되지 않았고, 쇠락할지언정 끊어지진 않았다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>플레이어 캐릭터의 점성이 50 증가한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 캐릭터의 사풍이 20 증가한다.</t>
   </si>
 </sst>
 </file>
@@ -503,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -679,7 +678,7 @@
         <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -693,10 +692,10 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
         <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/기획/테이블/행로/행로 스트링 테이블.xlsx
+++ b/기획/테이블/행로/행로 스트링 테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\기획\테이블\행로\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB63164-3050-4FD5-B1F4-805E3E99C338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2985733-B871-4E4E-A621-4146FB6F07D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="2535" windowWidth="20220" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-270" yWindow="135" windowWidth="27405" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -167,15 +167,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>플레이어 캐릭터의 공격력이 20 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>대지모와 소통하던 무당들의 행로. 아무리 위대하다한들 한낯 인간의 업적이다. 그것을 알기에 무당들은 석반에 매몰되지 않았고, 쇠락할지언정 끊어지진 않았다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>플레이어 캐릭터의 점성이 50 증가한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어 캐릭터의 사풍이 20 증가한다.</t>
   </si>
 </sst>
 </file>
@@ -502,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -678,7 +679,7 @@
         <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -692,10 +693,10 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
